--- a/deployment/Omaha_Cal_Info_CE05MOAS-GL312_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE05MOAS-GL312_00003.xlsx
@@ -5,42 +5,42 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ooi\ingestion-csvs\CE05MOAS-GL312\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="377"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Asset_Cal_Info!$A$1:$F$19</definedName>
-    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Asset_Cal_Info!$A$1:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$H$19</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$76</definedName>
+    <definedName name="_FilterDatabase_0_0">Moorings!$B$1:$K$76</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0">Moorings!$A$1:$J$76</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$311</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$311</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$F$311</definedName>
-    <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$311</definedName>
-    <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$19</definedName>
-    <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$76</definedName>
-    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$311</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0">Moorings!$B$1:$K$76</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$311</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$311</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$H$311</definedName>
+    <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$H$311</definedName>
+    <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$H$19</definedName>
+    <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$76</definedName>
+    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$311</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -142,6 +142,33 @@
   </si>
   <si>
     <t>124°17.398'W</t>
+  </si>
+  <si>
+    <t>A00079</t>
+  </si>
+  <si>
+    <t>Mooring OOIBARCODE</t>
+  </si>
+  <si>
+    <t>N00309</t>
+  </si>
+  <si>
+    <t>N00305</t>
+  </si>
+  <si>
+    <t>N00313</t>
+  </si>
+  <si>
+    <t>N00307</t>
+  </si>
+  <si>
+    <t>OL000361</t>
+  </si>
+  <si>
+    <t>Sensor OOIBARCODE</t>
+  </si>
+  <si>
+    <t>OL000362</t>
   </si>
 </sst>
 </file>
@@ -151,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -208,6 +235,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -303,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -367,6 +408,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,99 +788,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125"/>
-    <col min="4" max="4" width="24.140625"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="8" width="18.7109375"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="14.85546875"/>
-    <col min="11" max="11" width="51.7109375"/>
-    <col min="12" max="1025" width="8.7109375"/>
+    <col min="2" max="2" width="37.85546875"/>
+    <col min="3" max="3" width="39.42578125"/>
+    <col min="4" max="4" width="14.42578125"/>
+    <col min="5" max="5" width="24.140625"/>
+    <col min="6" max="7" width="17.42578125"/>
+    <col min="8" max="9" width="18.7109375"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="14.85546875"/>
+    <col min="12" max="12" width="51.7109375"/>
+    <col min="13" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>312</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>42391</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>0.90277777777777779</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="9">
-        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
+      <c r="M2" s="9">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>44.653483333333334</v>
       </c>
-      <c r="M2" s="9">
-        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
+      <c r="N2" s="9">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>-124.28996666666667</v>
       </c>
     </row>
@@ -845,214 +898,259 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125"/>
-    <col min="2" max="2" width="25"/>
-    <col min="3" max="3" width="26.140625"/>
-    <col min="4" max="4" width="26.85546875"/>
-    <col min="5" max="6" width="28.85546875"/>
-    <col min="7" max="7" width="11.42578125"/>
-    <col min="8" max="8" width="11.85546875"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="13.42578125"/>
-    <col min="11" max="1025" width="8.7109375"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="25"/>
+    <col min="4" max="4" width="26.140625"/>
+    <col min="6" max="6" width="26.85546875"/>
+    <col min="7" max="8" width="28.85546875"/>
+    <col min="9" max="9" width="11.42578125"/>
+    <col min="10" max="10" width="11.85546875"/>
+    <col min="11" max="11" width="14.42578125"/>
+    <col min="12" max="12" width="13.42578125"/>
+    <col min="13" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14">
         <v>312</v>
       </c>
-      <c r="C2" s="14">
+      <c r="D2" s="14">
         <v>3</v>
       </c>
-      <c r="D2" s="15">
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="15">
         <v>50146</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14">
         <v>312</v>
       </c>
-      <c r="C4" s="14">
+      <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="D4" s="15">
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="15">
         <v>3884</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="20">
+      <c r="H4" s="20">
         <v>124</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14">
         <v>312</v>
       </c>
-      <c r="C5" s="14">
+      <c r="D5" s="14">
         <v>3</v>
       </c>
-      <c r="D5" s="15">
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="15">
         <v>3884</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="20">
+      <c r="H5" s="20">
         <v>700</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14">
         <v>312</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="15">
         <v>3884</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20">
+      <c r="H6" s="20">
         <v>1.0760000000000001</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14">
         <v>312</v>
       </c>
-      <c r="C7" s="14">
+      <c r="D7" s="14">
         <v>3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="15">
         <v>3884</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="20">
+      <c r="H7" s="20">
         <v>3.9E-2</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14">
         <v>312</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="14">
         <v>3</v>
       </c>
-      <c r="D9" s="15">
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15">
         <v>642932</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="23">
+      <c r="H9" s="23">
         <v>0.61</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -1061,28 +1159,34 @@
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14">
         <v>312</v>
       </c>
-      <c r="C10" s="14">
+      <c r="D10" s="14">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15">
         <v>642932</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="23">
+      <c r="H10" s="23">
         <v>0.61</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -1091,28 +1195,34 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="14">
         <v>312</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D11" s="14">
         <v>3</v>
       </c>
-      <c r="D11" s="15">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15">
         <v>642932</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="23">
+      <c r="H11" s="23">
         <v>0.61</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
@@ -1121,28 +1231,34 @@
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14">
         <v>312</v>
       </c>
-      <c r="C12" s="14">
+      <c r="D12" s="14">
         <v>3</v>
       </c>
-      <c r="D12" s="15">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15">
         <v>642932</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="23">
+      <c r="H12" s="23">
         <v>0.61</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -1151,16 +1267,18 @@
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -1169,95 +1287,119 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
-    </row>
-    <row r="14" spans="1:16" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="14">
         <v>312</v>
       </c>
-      <c r="C14" s="14">
+      <c r="D14" s="14">
         <v>3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="15">
         <v>29</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="14">
         <v>312</v>
       </c>
-      <c r="C16" s="14">
+      <c r="D16" s="14">
         <v>3</v>
       </c>
-      <c r="D16" s="15">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="15">
         <v>9015</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="14">
         <v>312</v>
       </c>
-      <c r="C18" s="14">
+      <c r="D18" s="14">
         <v>3</v>
       </c>
-      <c r="D18" s="15">
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="15">
         <v>312</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
